--- a/SummarizeResultDrill.xlsx
+++ b/SummarizeResultDrill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AD247665-3D5E-4780-89C3-359FA6FD3D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{6530D909-15C8-45D9-B0DA-B362228327B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -890,6 +890,35 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="882" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C2C58A28-D8AB-4B7F-B821-1954FE041EAA}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{0C1EBD7A-6299-43A9-9268-753300CC1BC7}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
@@ -897,8 +926,8 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -972,7 +1001,24 @@
         <v>4</v>
       </c>
       <c r="N6" s="2" t="str" cm="1">
-        <f t="array" ref="N6:S11">_xlfn.MAKEARRAY(6,6,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,_xlfn.IFS(_xlpm.r*_xlpm.c=1,"",_xlpm.r=1,_xlpm.c-1,_xlpm.c=1,_xlpm.r-1,TRUE,_xlfn.ARRAYTOTEXT(_xlfn._xlws.FILTER(A2:A10,(B2:B10=_xlpm.r-1)*(C2:C10=_xlpm.c-1),"")))))</f>
+        <f t="array" ref="N6:S11">_xlfn.MAKEARRAY(
+    6,
+    6,
+    _xlfn.LAMBDA(_xlpm.r,_xlpm.c,
+        _xlfn.IFS(
+            _xlpm.r * _xlpm.c = 1,
+            "",
+            _xlpm.r = 1,
+            _xlpm.c - 1,
+            _xlpm.c = 1,
+            _xlpm.r - 1,
+            TRUE,
+            _xlfn.ARRAYTOTEXT(
+                _xlfn._xlws.FILTER(A2:A10, (B2:B10 = _xlpm.r - 1) * (C2:C10 = _xlpm.c - 1), "")
+            )
+        )
+    )
+)</f>
         <v/>
       </c>
       <c r="O6" s="2">
@@ -1131,4 +1177,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C1EBD7A-6299-43A9-9268-753300CC1BC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SummarizeResultDrill.xlsx
+++ b/SummarizeResultDrill.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{6530D909-15C8-45D9-B0DA-B362228327B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{56A2D5FE-EA68-4E55-AD86-830066E13F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114914AD-15FC-4D23-9E93-356CA2C4B5C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Alternative" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Value</t>
   </si>
@@ -96,12 +97,30 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>Answer Expected</t>
+  </si>
+  <si>
+    <t>This solution used the PIVOTBY function. This does not need a lot of detailed logic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main issue </t>
+  </si>
+  <si>
+    <t>Another approach</t>
+  </si>
+  <si>
+    <t>Yet another approach</t>
+  </si>
+  <si>
+    <t>Simple Breakdown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -192,8 +211,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -254,6 +287,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -270,12 +340,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -705,6 +786,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>427831</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A table with numbers and letters&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB51E52-ADBB-428C-9B77-437F27138089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65405" y="2020570"/>
+          <a:ext cx="3410426" cy="3130367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>105283</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A table with numbers and letters&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2606910-BBBA-4542-84E4-0F1885D1E80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="1800225"/>
+          <a:ext cx="3686683" cy="2295221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85219</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A192451E-395B-49A0-A825-79C99DE33E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1969135" y="38100"/>
+          <a:ext cx="14727684" cy="485208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>125543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962B151E-8C6C-0FF0-706F-50189ADEC981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="6667500"/>
+          <a:ext cx="2905125" cy="2554418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Biegert_Standard">
   <a:themeElements>
@@ -892,7 +1154,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="882" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="750" row="7">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -910,6 +1172,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -926,16 +1191,16 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+    <sheetView topLeftCell="H6" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="23" width="8.88671875" customWidth="1"/>
+    <col min="8" max="23" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -957,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1331,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1360,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1389,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1418,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N11" s="2">
         <v>5</v>
       </c>
@@ -1170,6 +1435,754 @@
         <v>C, I</v>
       </c>
       <c r="S11" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B29E62-B2D7-483B-B746-1DC2FBA778ED}">
+  <sheetPr>
+    <tabColor rgb="FFCCFFCC"/>
+  </sheetPr>
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="23" width="8.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10:P14">_xlfn.MAKEARRAY(5,5,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,10))</f>
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L19" t="str" cm="1">
+        <f t="array" ref="L19:P24">_xlfn.PIVOTBY(B2:B10,C2:C10,A2:A10,_xlfn.LAMBDA(_xlpm.x,_xlfn.ARRAYTOTEXT(_xlpm.x,0)),0,0,,0)</f>
+        <v/>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v>Α, D</v>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v>B</v>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v>E</v>
+      </c>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v>F, G</v>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Η</v>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v>C, I</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L28" s="3" t="str" cm="1">
+        <f t="array" ref="L28:Q33">_xlfn.LET(_xlpm.x, _xlfn.DROP(_xlfn.EXPAND(_xlfn.ANCHORARRAY(L19),6,6,""),1,1),_xlfn.VSTACK(_xlfn.HSTACK("",_xlfn.SEQUENCE(1,ROWS(_xlpm.x))),_xlfn.HSTACK(_xlfn.SEQUENCE(ROWS(_xlpm.x)),_xlpm.x)))</f>
+        <v/>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2</v>
+      </c>
+      <c r="O28" s="2">
+        <v>3</v>
+      </c>
+      <c r="P28" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N29" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O29" s="2" t="str">
+        <v>Α, D</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N30" s="2" t="str">
+        <v>B</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P30" s="2" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L31" s="2">
+        <v>3</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N31" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O31" s="2" t="str">
+        <v>F, G</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L32" s="2">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <v>Η</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O32" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P32" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L33" s="2">
+        <v>5</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N33" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O33" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P33" s="2" t="str">
+        <v>C, I</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="K35" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L38" s="3" t="str" cm="1">
+        <f t="array" ref="L38:Q43">_xlfn.PIVOTBY(_xlfn.VSTACK(B2:B10,5),_xlfn.VSTACK(C2:C10,5),_xlfn.VSTACK(A2:A10,""),_xlfn.LAMBDA(_xlpm.x,_xlfn.ARRAYTOTEXT(_xlpm.x,0)),0,0,,0)</f>
+        <v/>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N39" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O39" s="2" t="str">
+        <v>Α, D</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L40" s="2">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N40" s="2" t="str">
+        <v>B</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P40" s="2" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L41" s="2">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N41" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O41" s="2" t="str">
+        <v>F, G</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q41" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L42" s="2">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <v>Η</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O42" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P42" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q42" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L43" s="2">
+        <v>5</v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N43" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O43" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P43" s="2" t="str">
+        <v>C, I</v>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="K45" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="L48" s="3" t="str" cm="1">
+        <f t="array" ref="L48:Q53">_xlfn.LET(
+    _xlpm.z, _xlfn.VSTACK(A2:C10, {"",5,5}),
+    _xlfn.PIVOTBY(
+        _xlfn.CHOOSECOLS(_xlpm.z, 2),
+        _xlfn.TAKE(_xlpm.z, , -1),
+        _xlfn.TAKE(_xlpm.z, , 1),
+        _xlfn.LAMBDA(_xlpm.x, _xlfn.ARRAYTOTEXT(_xlpm.x, 0)),
+        0,
+        0,
+        ,
+        0
+    )
+)</f>
+        <v/>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>2</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3</v>
+      </c>
+      <c r="P48" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N49" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O49" s="2" t="str">
+        <v>Α, D</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L50" s="2">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N50" s="2" t="str">
+        <v>B</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P50" s="2" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N51" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O51" s="2" t="str">
+        <v>F, G</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L52" s="2">
+        <v>4</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <v>Η</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O52" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P52" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q52" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L53" s="2">
+        <v>5</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N53" s="2" t="str">
+        <v/>
+      </c>
+      <c r="O53" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P53" s="2" t="str">
+        <v>C, I</v>
+      </c>
+      <c r="Q53" s="2" t="str">
         <v/>
       </c>
     </row>
